--- a/support/support youtube.xlsx
+++ b/support/support youtube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\youtube\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40C3DF-A1E6-4371-9DD8-0907E111560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4909AB8D-DCEF-4BDA-B855-63D71066C9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trakteer.id" sheetId="1" r:id="rId1"/>
@@ -193,22 +193,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +489,7 @@
   <dimension ref="C2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -501,12 +498,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" s="1" t="s">
@@ -523,109 +520,109 @@
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="4">
         <v>40000</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
-        <v>50000</v>
-      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>25000</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>15000</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>15000</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>15000</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5000</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>5000</v>
       </c>
       <c r="F12" s="1"/>
@@ -646,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D78B78-274C-4C19-9F17-C29FCBDC521C}">
   <dimension ref="C3:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D29:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -657,12 +654,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="1" t="s">
@@ -679,13 +676,13 @@
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>35000</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -693,27 +690,27 @@
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>25000</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>44542</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>20000</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -721,13 +718,13 @@
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>10000</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -735,34 +732,27 @@
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:F8">
@@ -780,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7330586E-2DD5-44B2-8BC3-F9A0DA9E816F}">
   <dimension ref="C3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -802,103 +792,103 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>50000</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>50000</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>40000</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>35000</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>25000</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>25000</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>20000</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>15000</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>15000</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>15000</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>5000</v>
       </c>
     </row>
